--- a/PO.xlsx
+++ b/PO.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="336">
   <si>
     <t>To:</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>COLOR</t>
+  </si>
+  <si>
+    <t>Project No.:</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1246,27 +1249,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1275,33 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1330,102 +1285,62 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1473,6 +1388,10 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
@@ -1533,7 +1452,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="CommandButton1" hidden="1">
+            <xdr:cNvPr id="1025" name="PONumberBtn" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -1574,7 +1493,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="CommandButton2" hidden="1">
+            <xdr:cNvPr id="1026" name="POInventoryBtn" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
@@ -1602,23 +1521,64 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="CommandButton3" hidden="1">
+            <xdr:cNvPr id="1027" name="LoadMaterialsBtn" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="ClearBtn" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1933,7 +1893,7 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A41" sqref="A41:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,14 +1947,14 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2005,9 +1965,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2017,14 +1977,16 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="D8" s="24"/>
+      <c r="F8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -2034,10 +1996,10 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="25"/>
       <c r="F9" s="1"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2048,16 +2010,16 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="25"/>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -2068,9 +2030,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2080,14 +2042,14 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="38">
         <v>24901</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="38"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2097,10 +2059,10 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="39">
         <v>25272</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="39"/>
       <c r="F13" s="1"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2111,16 +2073,16 @@
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="39">
         <v>25272</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="39"/>
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2128,12 +2090,12 @@
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2146,12 +2108,12 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="2:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
@@ -2169,10 +2131,10 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="5">
         <v>100</v>
       </c>
@@ -2189,10 +2151,10 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="5"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="str">
@@ -2205,10 +2167,10 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="5"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="str">
@@ -2221,10 +2183,10 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="5"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="str">
@@ -2237,10 +2199,10 @@
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="5"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="str">
@@ -2253,10 +2215,10 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="5"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="str">
@@ -2269,10 +2231,10 @@
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="5"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="str">
@@ -2285,10 +2247,10 @@
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="2:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6" t="s">
         <v>17</v>
@@ -2309,15 +2271,15 @@
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2362,20 +2324,20 @@
         <v>21</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -2386,63 +2348,63 @@
         <v>22</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="10"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="10"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J39" s="10"/>
@@ -2451,585 +2413,566 @@
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J85"/>
-    <mergeCell ref="K36:S38"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
@@ -3042,6 +2985,25 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J85"/>
+    <mergeCell ref="K36:S38"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3055,33 +3017,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId4" name="CommandButton3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1028" r:id="rId4" name="ClearBtn">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>333375</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId4" name="CommandButton3"/>
+        <control shapeId="1028" r:id="rId4" name="ClearBtn"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="PONumberBtn">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId6" name="PONumberBtn"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId8" name="POInventoryBtn">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -3100,32 +3087,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1026" r:id="rId8" name="POInventoryBtn"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1027" r:id="rId10" name="LoadMaterialsBtn">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="CommandButton1"/>
+        <control shapeId="1027" r:id="rId10" name="LoadMaterialsBtn"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3164,1834 +3151,1834 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="18">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="18">
         <v>0.125</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="18">
         <v>125</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="15" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="15" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="19" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="18">
         <v>0.04</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="15" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="18">
         <v>0.08</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="18">
         <v>14</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="A56" s="18">
         <v>0.11</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="15" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="15" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="A68" s="18">
         <v>18</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="15" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31" t="s">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+      <c r="A74" s="20">
         <v>41410</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="15" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31" t="s">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="15" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
+      <c r="A82" s="23">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+      <c r="A85" s="18">
         <v>0.125</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31" t="s">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="15" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31" t="s">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+      <c r="A93" s="18">
         <v>24</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="15" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="15" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="15" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="37" t="s">
+      <c r="D100" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31" t="s">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34">
+      <c r="A107" s="18">
         <v>0.04</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
+      <c r="A109" s="18">
         <v>11</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="15" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="15" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="31"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="34" t="s">
+      <c r="C121" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="15" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34">
+      <c r="A128" s="18">
         <v>0.05</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="35" t="s">
+      <c r="D128" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34">
+      <c r="A129" s="18">
         <v>22</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D129" s="35" t="s">
+      <c r="D129" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="15" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="15" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34" t="s">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="35" t="s">
+      <c r="D134" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32" t="s">
+      <c r="B135" s="16"/>
+      <c r="C135" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5002,22 +4989,22 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A92:D94 A96:D102 A104:D112 A115:D135 A3:D89">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="3" priority="17">
       <formula>$N3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:D91">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$N90&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$N95&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:D103">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$N103&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
